--- a/重裝戰姬 - 台版機師列表(最後更新時間3_4).xlsx
+++ b/重裝戰姬 - 台版機師列表(最後更新時間3_4).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REX\Desktop\Temp\重裝戰姬\機師時間\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7756F08-21A2-4C8C-863C-EB5EFFC9253A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CF64B2-99DB-4157-9869-48E106F459C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>取得方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,10 +356,6 @@
   </si>
   <si>
     <t>招募 04:44:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 05:09:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -401,6 +397,81 @@
   </si>
   <si>
     <t>活動限定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:50:00
+A3賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:30:00
+A1賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:00:00
+A1賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:40:00
+A1賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:50:00
+A1賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:00:00
+A2賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:30:00
+A2賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:20:00
+A2賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:30:00
+A3賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 05:09:00
+A4賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:20:00
+A4賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:00:00
+A4賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:50:00
+A4賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 04:00:00
+A5賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:50:00
+A2, A5賞金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -479,14 +550,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
@@ -563,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -604,9 +667,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,7 +679,19 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -752,13 +824,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>960596</xdr:colOff>
+      <xdr:colOff>1036796</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6635</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482885</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>3586</xdr:rowOff>
     </xdr:to>
@@ -789,8 +861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2410053" y="2885933"/>
-          <a:ext cx="488674" cy="480392"/>
+          <a:off x="3713321" y="2384835"/>
+          <a:ext cx="493839" cy="476251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,13 +2324,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>959655</xdr:colOff>
+      <xdr:colOff>1035855</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>471595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>91</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476341</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>4010</xdr:rowOff>
     </xdr:to>
@@ -2289,8 +2361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="959655" y="6716682"/>
-          <a:ext cx="483072" cy="493198"/>
+          <a:off x="1035855" y="6186595"/>
+          <a:ext cx="488236" cy="484915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2601,14 +2673,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>960387</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7887</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>468667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>478535</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2285</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1082</xdr:rowOff>
     </xdr:to>
@@ -2639,8 +2711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409844" y="5752971"/>
-          <a:ext cx="478930" cy="493198"/>
+          <a:off x="3732162" y="5231167"/>
+          <a:ext cx="480173" cy="484915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3272,7 +3344,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>961301</xdr:colOff>
+      <xdr:colOff>1047026</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
@@ -3309,7 +3381,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11324501" y="1419225"/>
+          <a:off x="11753126" y="1419225"/>
           <a:ext cx="482853" cy="486656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3622,13 +3694,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>941294</xdr:colOff>
+      <xdr:colOff>1017494</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>24940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
@@ -3659,8 +3731,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11295529" y="4843469"/>
-          <a:ext cx="504265" cy="479325"/>
+          <a:off x="11723594" y="4787440"/>
+          <a:ext cx="506506" cy="473722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4276,21 +4348,27 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
     <col min="18" max="18" width="7.28515625" customWidth="1"/>
     <col min="20" max="20" width="2.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
     <col min="22" max="22" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4356,39 +4434,39 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>72</v>
+      <c r="A2" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>74</v>
+      <c r="E2" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="16" t="s">
-        <v>73</v>
+      <c r="I2" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="16" t="s">
-        <v>78</v>
+      <c r="M2" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="P2" s="6"/>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="16" t="s">
         <v>80</v>
       </c>
       <c r="R2" s="8"/>
@@ -4396,8 +4474,8 @@
         <v>53</v>
       </c>
       <c r="T2" s="6"/>
-      <c r="U2" s="18" t="s">
-        <v>92</v>
+      <c r="U2" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="5" t="s">
@@ -4405,23 +4483,23 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>72</v>
+      <c r="A3" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>74</v>
+      <c r="E3" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J3" s="8"/>
@@ -4429,15 +4507,15 @@
         <v>51</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="16" t="s">
-        <v>78</v>
+      <c r="M3" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="P3" s="6"/>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>81</v>
       </c>
       <c r="R3" s="8"/>
@@ -4445,8 +4523,8 @@
         <v>54</v>
       </c>
       <c r="T3" s="6"/>
-      <c r="U3" s="19" t="s">
-        <v>93</v>
+      <c r="U3" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="10" t="s">
@@ -4454,8 +4532,8 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>72</v>
+      <c r="A4" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -4470,7 +4548,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="8"/>
@@ -4478,15 +4556,15 @@
         <v>52</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="16" t="s">
-        <v>78</v>
+      <c r="M4" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="16" t="s">
         <v>81</v>
       </c>
       <c r="R4" s="8"/>
@@ -4494,8 +4572,8 @@
         <v>68</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="18" t="s">
-        <v>91</v>
+      <c r="U4" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="5" t="s">
@@ -4503,8 +4581,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>88</v>
+      <c r="A5" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
@@ -4519,7 +4597,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J5" s="8"/>
@@ -4527,7 +4605,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>78</v>
       </c>
       <c r="N5" s="8"/>
@@ -4535,7 +4613,7 @@
         <v>31</v>
       </c>
       <c r="P5" s="6"/>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="16" t="s">
         <v>82</v>
       </c>
       <c r="R5" s="8"/>
@@ -4543,8 +4621,8 @@
         <v>57</v>
       </c>
       <c r="T5" s="6"/>
-      <c r="U5" s="18" t="s">
-        <v>94</v>
+      <c r="U5" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="V5" s="8"/>
       <c r="W5" s="5" t="s">
@@ -4552,8 +4630,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>72</v>
+      <c r="A6" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
@@ -4568,15 +4646,15 @@
         <v>20</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="16" t="s">
-        <v>77</v>
+      <c r="I6" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>79</v>
       </c>
       <c r="N6" s="8"/>
@@ -4584,7 +4662,7 @@
         <v>47</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="16" t="s">
         <v>83</v>
       </c>
       <c r="R6" s="8"/>
@@ -4592,8 +4670,8 @@
         <v>58</v>
       </c>
       <c r="T6" s="6"/>
-      <c r="U6" s="18" t="s">
-        <v>94</v>
+      <c r="U6" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="12" t="s">
@@ -4601,7 +4679,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="4"/>
@@ -4609,15 +4687,15 @@
         <v>8</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>73</v>
+      <c r="E7" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J7" s="8"/>
@@ -4625,7 +4703,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>79</v>
       </c>
       <c r="N7" s="8"/>
@@ -4633,7 +4711,7 @@
         <v>45</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="16" t="s">
         <v>84</v>
       </c>
       <c r="R7" s="8"/>
@@ -4641,8 +4719,8 @@
         <v>59</v>
       </c>
       <c r="T7" s="6"/>
-      <c r="U7" s="18" t="s">
-        <v>95</v>
+      <c r="U7" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="V7" s="8"/>
       <c r="W7" s="5" t="s">
@@ -4650,23 +4728,23 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>72</v>
+      <c r="A8" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>73</v>
+      <c r="E8" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J8" s="8"/>
@@ -4674,16 +4752,16 @@
         <v>43</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="16" t="s">
-        <v>79</v>
+      <c r="M8" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="17" t="s">
-        <v>85</v>
+      <c r="Q8" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="5" t="s">
@@ -4695,8 +4773,8 @@
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>72</v>
+      <c r="A9" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
@@ -4711,7 +4789,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J9" s="8"/>
@@ -4719,7 +4797,7 @@
         <v>37</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>79</v>
       </c>
       <c r="N9" s="8"/>
@@ -4727,8 +4805,8 @@
         <v>46</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17" t="s">
-        <v>86</v>
+      <c r="Q9" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="5" t="s">
@@ -4740,23 +4818,23 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>72</v>
+      <c r="A10" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
-        <v>73</v>
+      <c r="E10" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J10" s="8"/>
@@ -4764,16 +4842,16 @@
         <v>38</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="16" t="s">
-        <v>88</v>
+      <c r="M10" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="17" t="s">
-        <v>86</v>
+      <c r="Q10" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="5" t="s">
@@ -4785,8 +4863,8 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>72</v>
+      <c r="A11" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
@@ -4801,7 +4879,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J11" s="8"/>
@@ -4813,8 +4891,8 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="17" t="s">
-        <v>86</v>
+      <c r="Q11" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="5" t="s">
@@ -4826,23 +4904,23 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>72</v>
+      <c r="A12" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="14" t="s">
-        <v>87</v>
+      <c r="E12" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J12" s="8"/>
@@ -4854,8 +4932,8 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="17" t="s">
-        <v>87</v>
+      <c r="Q12" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="5" t="s">
@@ -4867,23 +4945,23 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>72</v>
+      <c r="A13" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
-        <v>76</v>
+      <c r="E13" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J13" s="8"/>
@@ -4895,8 +4973,8 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="17" t="s">
-        <v>89</v>
+      <c r="Q13" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="5" t="s">
@@ -4908,7 +4986,7 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="4"/>
@@ -4924,7 +5002,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J14" s="8"/>
@@ -4936,8 +5014,8 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="17" t="s">
-        <v>90</v>
+      <c r="Q14" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="5" t="s">
@@ -4961,7 +5039,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J15" s="8"/>

--- a/重裝戰姬 - 台版機師列表(最後更新時間3_4).xlsx
+++ b/重裝戰姬 - 台版機師列表(最後更新時間3_4).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REX\Desktop\Temp\重裝戰姬\機師時間\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REX\Desktop\Temp\重裝戰姬\機師表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CF64B2-99DB-4157-9869-48E106F459C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F17FE0-0727-4B86-A851-0E093B49C620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>取得方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,254 +232,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>絲諾麗</t>
+  </si>
+  <si>
+    <t>招募 00:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:40:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 04:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:01:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 04:18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5賞金限定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3賞金限定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:50:00
+A3賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:30:00
+A1賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:00:00
+A1賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:40:00
+A1賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:50:00
+A1賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:00:00
+A2賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:30:00
+A2賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:20:00
+A2賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 03:30:00
+A3賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:20:00
+A4賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 01:00:00
+A4賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:50:00
+A4賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 04:00:00
+A5賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募 00:50:00
+A2, A5賞金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>諾娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>變異體伊芙琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課金獲得</t>
   </si>
   <si>
     <t>貝爾娜黛特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菲比亞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>絲諾麗</t>
-  </si>
-  <si>
-    <t>紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小林湯圓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薇歐蕾特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九條綾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾莉克薩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索拉爾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊麗莎白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妮婭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘇茉拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天音塞莉卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰西婭‧格拉芙特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林默娘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅菈‧貝達</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊芙琳&amp;柯洛兒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 00:50:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:40:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 03:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 03:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 04:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 00:01:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活動 機率UP中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 04:18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 04:41:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 04:44:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 05:18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5賞金限定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3賞金限定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 07:37:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 07:41:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登錄七天獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課金獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伊芙琳個人劇情
 第七章獲得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊芙琳&amp;柯洛兒</t>
+  </si>
+  <si>
+    <t>招募 04:41:00</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>登錄七天獲得</t>
+  </si>
+  <si>
+    <t>菲比亞</t>
+  </si>
+  <si>
+    <t>招募 04:44:00</t>
+  </si>
+  <si>
+    <t>小林湯圓</t>
   </si>
   <si>
     <t>合作限定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活動限定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 00:50:00
-A3賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 03:30:00
-A1賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:00:00
-A1賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:40:00
-A1賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 00:50:00
-A1賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 03:00:00
-A2賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 03:30:00
-A2賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:20:00
-A2賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 03:30:00
-A3賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林默娘</t>
   </si>
   <si>
     <t>招募 05:09:00
 A4賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:20:00
-A4賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 01:00:00
-A4賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 00:50:00
-A4賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 04:00:00
-A5賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募 00:50:00
-A2, A5賞金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薇歐蕾特</t>
+  </si>
+  <si>
+    <t>雅菈‧貝達</t>
+  </si>
+  <si>
+    <t>招募 05:18:00</t>
+  </si>
+  <si>
+    <t>九條綾</t>
+  </si>
+  <si>
+    <t>活動限定</t>
+  </si>
+  <si>
+    <t>天音塞莉卡</t>
+  </si>
+  <si>
+    <t>艾莉克薩</t>
+  </si>
+  <si>
+    <t>限定招募</t>
+  </si>
+  <si>
+    <t>蘇茉拉</t>
+  </si>
+  <si>
+    <t>A5賞金限定</t>
+  </si>
+  <si>
+    <t>伊麗莎白</t>
+  </si>
+  <si>
+    <t>常駐限時招募</t>
+  </si>
+  <si>
+    <t>變異體伊芙琳</t>
+  </si>
+  <si>
+    <t>招募 07:37:00</t>
+  </si>
+  <si>
+    <t>索拉爾</t>
+  </si>
+  <si>
+    <t>泰西婭‧格拉芙特</t>
+  </si>
+  <si>
+    <t>招募 07:41:00</t>
+  </si>
+  <si>
+    <t>妮婭</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -540,22 +516,35 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,8 +587,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -622,11 +623,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -652,18 +735,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -671,12 +742,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,11 +753,59 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2223,15 +2336,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>8321</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1046546</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>470561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>318</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476568</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2261,8 +2374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5317473" y="1431344"/>
-          <a:ext cx="480670" cy="490796"/>
+          <a:off x="14429171" y="3804311"/>
+          <a:ext cx="477772" cy="482514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3293,23 +3406,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>6062</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3105</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>6063</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>13511</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="310" name="圖片 309">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FAB643-1DED-43E6-8A45-12F59C5B04E5}"/>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>8801</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="311" name="圖片 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D74187E-4B62-45BA-9DEC-610E09540069}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,57 +3444,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5315214" y="2405062"/>
-          <a:ext cx="481853" cy="490797"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1047026</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>482129</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="311" name="圖片 310">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D74187E-4B62-45BA-9DEC-610E09540069}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11753126" y="1419225"/>
+          <a:off x="14439176" y="4286250"/>
           <a:ext cx="482853" cy="486656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3418,7 +3481,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3444,22 +3507,72 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="313" name="圖片 312">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED072B9-1607-4938-9025-2C5DB8E8C802}"/>
+      <xdr:colOff>10744</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="316" name="圖片 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845D9D5C-8B89-430E-9B2E-01205C3DF8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11763375" y="2861708"/>
+          <a:ext cx="486994" cy="476251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1007969</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="318" name="圖片 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D417E68-6361-4E30-B491-E7E35C02FD8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3481,358 +3594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5309152" y="2896082"/>
-          <a:ext cx="488674" cy="480391"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>480670</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="314" name="圖片 313">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97732063-4539-4D02-9E21-B9EFF7E9DB48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5309152" y="3376473"/>
-          <a:ext cx="480670" cy="480391"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1220</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24139</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="315" name="圖片 314">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D602919A-2FF1-4B4F-9F7D-3BE36349371D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5309152" y="3856864"/>
-          <a:ext cx="483072" cy="490797"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13733</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1219</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="316" name="圖片 315">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845D9D5C-8B89-430E-9B2E-01205C3DF8DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5309152" y="4337255"/>
-          <a:ext cx="483071" cy="480392"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>480670</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>24140</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="317" name="圖片 316">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76EE225-819E-4384-93B0-27D55C77F826}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5309152" y="4817647"/>
-          <a:ext cx="480670" cy="490797"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1017494</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>24940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="318" name="圖片 317">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D417E68-6361-4E30-B491-E7E35C02FD8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11723594" y="4787440"/>
+          <a:off x="14390594" y="3339640"/>
           <a:ext cx="506506" cy="473722"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>13733</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>3654</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>31272</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="319" name="圖片 318">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDD9F28-9071-48C9-8E0C-DD2F35005C2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11375571" y="5252483"/>
-          <a:ext cx="471900" cy="493789"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13734</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>4420</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>26541</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="320" name="圖片 319">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B50125-BF8D-49E9-8135-2B6922F0BE79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11375571" y="5728734"/>
-          <a:ext cx="480670" cy="489057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3868,7 +3631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3918,7 +3681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3968,7 +3731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4018,7 +3781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4068,7 +3831,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4094,49 +3857,487 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="圖片 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50F3006-EA40-4152-8847-A4AE2F2BB5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11772900" y="962025"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="圖片 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA4603B-EE85-42C0-9195-B0643D192648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11772900" y="1438275"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="圖片 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B26D2C-BE78-4941-98C9-76C5E0CCCA83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11753850" y="1895475"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>5602</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="327" name="圖片 326">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35DBA5E-4D3D-47FA-9525-C28CD53DA75E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12613821" y="6667500"/>
-          <a:ext cx="489858" cy="481852"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="圖片 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E581779A-B868-439E-BE59-C29A901AEDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11763375" y="2381250"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="圖片 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF6DE11-CAD6-43F1-A10C-4A0BD632032B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11763375" y="3352800"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="圖片 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901510A1-E4EC-4FB1-8DD3-88FFD2786485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11763375" y="3838575"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="圖片 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA64A3B-958E-4FDF-98FF-20B178B595C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11763375" y="4295775"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="圖片 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8408863-B4AB-47F8-BA97-A6B9A77EA5B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11763375" y="4772025"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4348,7 +4549,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4413,127 +4614,127 @@
         <v>1</v>
       </c>
       <c r="P1" s="3"/>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>99</v>
+      <c r="A2" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="20" t="s">
-        <v>106</v>
+      <c r="E2" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="19" t="s">
-        <v>105</v>
+      <c r="I2" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="19" t="s">
-        <v>103</v>
+      <c r="M2" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="16" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="5" t="s">
-        <v>55</v>
+      <c r="T2" s="24"/>
+      <c r="U2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="22"/>
+      <c r="W2" s="28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>95</v>
+      <c r="A3" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="20" t="s">
-        <v>97</v>
+      <c r="E3" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="15" t="s">
-        <v>76</v>
+      <c r="I3" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="19" t="s">
-        <v>96</v>
+      <c r="M3" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="10" t="s">
-        <v>71</v>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="24"/>
+      <c r="U3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="W3" s="27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>95</v>
+      <c r="A4" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -4541,48 +4742,48 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="15" t="s">
-        <v>76</v>
+      <c r="I4" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="19" t="s">
-        <v>101</v>
+      <c r="M4" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="5" t="s">
-        <v>56</v>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>87</v>
+      <c r="A5" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
@@ -4590,48 +4791,48 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="15" t="s">
-        <v>77</v>
+      <c r="I5" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="15" t="s">
-        <v>78</v>
+      <c r="M5" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="5" t="s">
-        <v>69</v>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="24"/>
+      <c r="U5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>99</v>
+      <c r="A6" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
@@ -4639,142 +4840,146 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="19" t="s">
-        <v>100</v>
+      <c r="I6" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="15" t="s">
-        <v>79</v>
+      <c r="M6" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="17" t="s">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="12" t="s">
-        <v>70</v>
+      <c r="R6" s="22"/>
+      <c r="S6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="24"/>
+      <c r="U6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>72</v>
+      <c r="A7" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="20" t="s">
-        <v>102</v>
+      <c r="E7" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="15" t="s">
-        <v>77</v>
+      <c r="I7" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="15" t="s">
-        <v>79</v>
+      <c r="M7" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="5" t="s">
-        <v>67</v>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="24"/>
+      <c r="U7" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" s="22"/>
+      <c r="W7" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>109</v>
+      <c r="A8" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="20" t="s">
-        <v>105</v>
+      <c r="E8" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="15" t="s">
-        <v>77</v>
+      <c r="I8" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="19" t="s">
-        <v>108</v>
+      <c r="M8" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="16"/>
       <c r="Q8" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" s="24"/>
+      <c r="U8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>99</v>
+      <c r="A9" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
@@ -4782,89 +4987,97 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="15" t="s">
-        <v>77</v>
+      <c r="I9" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="15" t="s">
-        <v>79</v>
+      <c r="M9" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" s="24"/>
+      <c r="U9" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="V9" s="22"/>
+      <c r="W9" s="30" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>95</v>
+      <c r="A10" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="20" t="s">
-        <v>105</v>
+      <c r="E10" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="15" t="s">
-        <v>77</v>
+      <c r="I10" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="15" t="s">
-        <v>87</v>
+      <c r="M10" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T10" s="24"/>
+      <c r="U10" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="V10" s="22"/>
+      <c r="W10" s="31" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>109</v>
+      <c r="A11" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
@@ -4872,40 +5085,40 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="15" t="s">
-        <v>77</v>
+      <c r="I11" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
     </row>
-    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>109</v>
+    <row r="12" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -4913,15 +5126,15 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="15" t="s">
-        <v>77</v>
+      <c r="I12" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="5" t="s">
@@ -4932,37 +5145,33 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
     </row>
-    <row r="13" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>107</v>
+    <row r="13" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="20" t="s">
-        <v>98</v>
+      <c r="E13" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="15" t="s">
-        <v>77</v>
+      <c r="I13" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="5" t="s">
@@ -4973,21 +5182,17 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="6"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="15"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>73</v>
+      <c r="A14" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
@@ -4995,15 +5200,15 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="15" t="s">
-        <v>77</v>
+      <c r="I14" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="5" t="s">
@@ -5014,13 +5219,9 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="S14" s="8"/>
       <c r="T14" s="6"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -5032,15 +5233,15 @@
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="15" t="s">
-        <v>77</v>
+      <c r="I15" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="5" t="s">
